--- a/Research/Track-4/mesh-sensitivity.xlsx
+++ b/Research/Track-4/mesh-sensitivity.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">frac_elem_size</t>
   </si>
   <si>
     <t xml:space="preserve">K_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K_out</t>
   </si>
   <si>
     <t xml:space="preserve">alpha</t>
@@ -42,12 +45,15 @@
   <si>
     <t xml:space="preserve">alpha_o/alpha_i</t>
   </si>
+  <si>
+    <t xml:space="preserve">elapsed_ms</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
@@ -55,6 +61,7 @@
     <numFmt numFmtId="168" formatCode="0.00%"/>
     <numFmt numFmtId="169" formatCode="0.00"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="#,##0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -286,28 +293,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0.950119</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.275133</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.711328</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.296736</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.082399</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.13682</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.551936</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.451131</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -322,25 +329,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00485287897559905</c:v>
+                  <c:v>0.00241298817111235</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0171301200399761</c:v>
+                  <c:v>0.00745440988575785</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0114724828848523</c:v>
+                  <c:v>0.0110083218116894</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00261265678748024</c:v>
+                  <c:v>0.00535053898811877</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0083676135364068</c:v>
+                  <c:v>-0.00645961429658026</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.016712768705013</c:v>
+                  <c:v>0.00437260434113074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0190128798739337</c:v>
+                  <c:v>0.0197778851882244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -410,28 +417,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0.950119</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.275133</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.711328</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.296736</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.082399</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.13682</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.551936</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.451131</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,36 +453,36 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.0020027475256853</c:v>
+                  <c:v>-0.00184532957503947</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.00609525897656382</c:v>
+                  <c:v>-0.00368311879891792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.00950945361237965</c:v>
+                  <c:v>-0.00655187967244708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.0129277592591958</c:v>
+                  <c:v>-0.00901551804268941</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.0167866282515528</c:v>
+                  <c:v>-0.0125217813325583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.0203858183823856</c:v>
+                  <c:v>-0.0162569971031341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.0204543352323919</c:v>
+                  <c:v>-0.0199483417396824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="79114962"/>
-        <c:axId val="63397311"/>
+        <c:axId val="91506394"/>
+        <c:axId val="97368081"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79114962"/>
+        <c:axId val="91506394"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -504,13 +511,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63397311"/>
+        <c:crossAx val="97368081"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.15"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63397311"/>
+        <c:axId val="97368081"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,7 +554,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79114962"/>
+        <c:crossAx val="91506394"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -668,28 +675,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0.950119</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.275133</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.711328</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.296736</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.082399</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.13682</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.551936</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.451131</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -704,36 +711,36 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.0117003089759876</c:v>
+                  <c:v>-0.0108042650897997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.0352263994102793</c:v>
+                  <c:v>-0.0214355361243042</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.0544864254458194</c:v>
+                  <c:v>-0.0378227911804486</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.0734014021549898</c:v>
+                  <c:v>-0.0517094958009626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.0943709907620884</c:v>
+                  <c:v>-0.0711791903878213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.113536912435891</c:v>
+                  <c:v>-0.091513855251156</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.11391332988284</c:v>
+                  <c:v>-0.111219450822508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="3994878"/>
-        <c:axId val="14550383"/>
+        <c:axId val="29852114"/>
+        <c:axId val="85865929"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3994878"/>
+        <c:axId val="29852114"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -762,13 +769,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14550383"/>
+        <c:crossAx val="85865929"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.15"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="14550383"/>
+        <c:axId val="85865929"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,7 +812,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3994878"/>
+        <c:crossAx val="29852114"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -926,28 +933,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0.950119</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.275133</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.711328</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.296736</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.082399</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.13682</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.551936</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.451131</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,39 +966,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.729748</c:v>
+                  <c:v>0.729409</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.728286</c:v>
+                  <c:v>0.728063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.725299</c:v>
+                  <c:v>0.726722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.722808</c:v>
+                  <c:v>0.72463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.720313</c:v>
+                  <c:v>0.722833</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.717497</c:v>
+                  <c:v>0.720276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.714871</c:v>
+                  <c:v>0.717551</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.714821</c:v>
+                  <c:v>0.714858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="47736038"/>
-        <c:axId val="55617211"/>
+        <c:axId val="56313037"/>
+        <c:axId val="61907767"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47736038"/>
+        <c:axId val="56313037"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1020,13 +1027,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55617211"/>
+        <c:crossAx val="61907767"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55617211"/>
+        <c:axId val="61907767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1070,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47736038"/>
+        <c:crossAx val="56313037"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1184,28 +1191,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0.950119</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.275133</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.711328</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.296736</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.082399</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.13682</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.551936</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.451131</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,39 +1224,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.063759</c:v>
+                  <c:v>0.063586</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.063013</c:v>
+                  <c:v>0.062899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.061513</c:v>
+                  <c:v>0.062223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.060285</c:v>
+                  <c:v>0.061181</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.059079</c:v>
+                  <c:v>0.060298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.057742</c:v>
+                  <c:v>0.05906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.05652</c:v>
+                  <c:v>0.057767</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.056496</c:v>
+                  <c:v>0.056514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="78868775"/>
-        <c:axId val="56754174"/>
+        <c:axId val="80854336"/>
+        <c:axId val="60717241"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78868775"/>
+        <c:axId val="80854336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1278,13 +1285,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56754174"/>
+        <c:crossAx val="60717241"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56754174"/>
+        <c:axId val="60717241"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,9 +1328,282 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78868775"/>
+        <c:crossAx val="80854336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>elapsed_ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.950119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.275133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.711328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.296736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.082399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.13682</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.551936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.451131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$7:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>546483</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>269943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72681.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34914.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21073.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13584.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12100.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10004.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1888009"/>
+        <c:axId val="25634667"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1888009"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25634667"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="25634667"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888009"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1403,16 +1683,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>346680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>762840</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:colOff>297000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1420,7 +1700,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9753480" y="2763720"/>
+        <a:off x="9287640" y="3002400"/>
         <a:ext cx="7265520" cy="3432960"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1486,6 +1766,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>79200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>148680</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1704960" y="10279440"/>
+        <a:ext cx="5758920" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1607,8 +1917,8 @@
   </sheetPr>
   <dimension ref="C6:U15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K80" activeCellId="0" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1620,20 +1930,26 @@
       <c r="E6" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>2</v>
+      </c>
       <c r="G6" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="N6" s="1" t="str">
         <f aca="false">+D6</f>
@@ -1643,9 +1959,9 @@
         <f aca="false">+E6</f>
         <v>K_in</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="0" t="str">
         <f aca="false">+F6</f>
-        <v>0</v>
+        <v>K_out</v>
       </c>
       <c r="Q6" s="0" t="str">
         <f aca="false">+G6</f>
@@ -1673,32 +1989,35 @@
         <v>0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1.275133</v>
+        <v>0.950119</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>1666670000</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>890538000</v>
+        <v>889631000</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.729748</v>
+        <v>0.729409</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.063759</v>
+        <v>0.063586</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.534322</v>
+        <v>0.533778</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1.459495</v>
+        <v>1.458818</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>546483</v>
       </c>
       <c r="N7" s="3" t="n">
         <f aca="false">+D7</f>
-        <v>1.275133</v>
+        <v>0.950119</v>
       </c>
       <c r="O7" s="4" t="n">
         <f aca="false">+E7/E$7-1</f>
@@ -1734,32 +2053,35 @@
         <v>0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1.711328</v>
+        <v>1.275133</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1666670000</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>894860900</v>
+        <v>891778800</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.728286</v>
+        <v>0.728063</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.063013</v>
+        <v>0.062899</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.536915</v>
+        <v>0.535066</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1.456572</v>
+        <v>1.456126</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>269943</v>
       </c>
       <c r="N8" s="3" t="n">
         <f aca="false">+D8</f>
-        <v>1.711328</v>
+        <v>1.275133</v>
       </c>
       <c r="O8" s="4" t="n">
         <f aca="false">+E8/E$7-1</f>
@@ -1767,7 +2089,7 @@
       </c>
       <c r="P8" s="4" t="n">
         <f aca="false">+F8/F$7-1</f>
-        <v>0.00485425664036798</v>
+        <v>0.00241425939518747</v>
       </c>
       <c r="Q8" s="4" t="n">
         <f aca="false">+G8/G$7-1</f>
@@ -1775,19 +2097,19 @@
       </c>
       <c r="R8" s="4" t="n">
         <f aca="false">+H8/H$7-1</f>
-        <v>-0.00200343132149727</v>
+        <v>-0.00184532957503947</v>
       </c>
       <c r="S8" s="4" t="n">
         <f aca="false">+I8/I$7-1</f>
-        <v>-0.0117003089759876</v>
+        <v>-0.0108042650897997</v>
       </c>
       <c r="T8" s="4" t="n">
         <f aca="false">+J8/J$7-1</f>
-        <v>0.00485287897559905</v>
+        <v>0.00241298817111235</v>
       </c>
       <c r="U8" s="4" t="n">
         <f aca="false">+K8/K$7-1</f>
-        <v>-0.0020027475256853</v>
+        <v>-0.00184532957503947</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,32 +2117,35 @@
         <v>0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>2.296736</v>
+        <v>1.711328</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>1666670000</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>905793900</v>
+        <v>896263600</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.725299</v>
+        <v>0.726722</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.061513</v>
+        <v>0.062223</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.543475</v>
+        <v>0.537757</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>1.450599</v>
+        <v>1.453445</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>106626</v>
       </c>
       <c r="N9" s="3" t="n">
         <f aca="false">+D9</f>
-        <v>2.296736</v>
+        <v>1.711328</v>
       </c>
       <c r="O9" s="4" t="n">
         <f aca="false">+E9/E$7-1</f>
@@ -1828,7 +2153,7 @@
       </c>
       <c r="P9" s="4" t="n">
         <f aca="false">+F9/F$7-1</f>
-        <v>0.0171311050174165</v>
+        <v>0.00745545063065478</v>
       </c>
       <c r="Q9" s="4" t="n">
         <f aca="false">+G9/G$7-1</f>
@@ -1836,19 +2161,19 @@
       </c>
       <c r="R9" s="4" t="n">
         <f aca="false">+H9/H$7-1</f>
-        <v>-0.00609662513634834</v>
+        <v>-0.00368380428538717</v>
       </c>
       <c r="S9" s="4" t="n">
         <f aca="false">+I9/I$7-1</f>
-        <v>-0.0352263994102793</v>
+        <v>-0.0214355361243042</v>
       </c>
       <c r="T9" s="4" t="n">
         <f aca="false">+J9/J$7-1</f>
-        <v>0.0171301200399761</v>
+        <v>0.00745440988575785</v>
       </c>
       <c r="U9" s="4" t="n">
         <f aca="false">+K9/K$7-1</f>
-        <v>-0.00609525897656382</v>
+        <v>-0.00368311879891792</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1856,32 +2181,35 @@
         <v>0</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3.082399</v>
+        <v>2.296736</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>1666670000</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>900755200</v>
+        <v>899424600</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.722808</v>
+        <v>0.72463</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.060285</v>
+        <v>0.061181</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.540452</v>
+        <v>0.539654</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>1.445616</v>
+        <v>1.44926</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>72681.2</v>
       </c>
       <c r="N10" s="3" t="n">
         <f aca="false">+D10</f>
-        <v>3.082399</v>
+        <v>2.296736</v>
       </c>
       <c r="O10" s="4" t="n">
         <f aca="false">+E10/E$7-1</f>
@@ -1889,7 +2217,7 @@
       </c>
       <c r="P10" s="4" t="n">
         <f aca="false">+F10/F$7-1</f>
-        <v>0.0114730645969066</v>
+        <v>0.0110086091874047</v>
       </c>
       <c r="Q10" s="4" t="n">
         <f aca="false">+G10/G$7-1</f>
@@ -1897,19 +2225,19 @@
       </c>
       <c r="R10" s="4" t="n">
         <f aca="false">+H10/H$7-1</f>
-        <v>-0.00951013226483655</v>
+        <v>-0.00655187967244708</v>
       </c>
       <c r="S10" s="4" t="n">
         <f aca="false">+I10/I$7-1</f>
-        <v>-0.0544864254458194</v>
+        <v>-0.0378227911804486</v>
       </c>
       <c r="T10" s="4" t="n">
         <f aca="false">+J10/J$7-1</f>
-        <v>0.0114724828848523</v>
+        <v>0.0110083218116894</v>
       </c>
       <c r="U10" s="4" t="n">
         <f aca="false">+K10/K$7-1</f>
-        <v>-0.00950945361237965</v>
+        <v>-0.00655187967244708</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,32 +2245,35 @@
         <v>0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>4.13682</v>
+        <v>3.082399</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>1666670000</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>892865600</v>
+        <v>894391700</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.720313</v>
+        <v>0.722833</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.059079</v>
+        <v>0.060298</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.535718</v>
+        <v>0.536634</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>1.440627</v>
+        <v>1.445666</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>34914.7</v>
       </c>
       <c r="N11" s="3" t="n">
         <f aca="false">+D11</f>
-        <v>4.13682</v>
+        <v>3.082399</v>
       </c>
       <c r="O11" s="4" t="n">
         <f aca="false">+E11/E$7-1</f>
@@ -1950,7 +2281,7 @@
       </c>
       <c r="P11" s="4" t="n">
         <f aca="false">+F11/F$7-1</f>
-        <v>0.00261370093134716</v>
+        <v>0.00535131981686798</v>
       </c>
       <c r="Q11" s="4" t="n">
         <f aca="false">+G11/G$7-1</f>
@@ -1958,19 +2289,19 @@
       </c>
       <c r="R11" s="4" t="n">
         <f aca="false">+H11/H$7-1</f>
-        <v>-0.0129291207375697</v>
+        <v>-0.00901551804268941</v>
       </c>
       <c r="S11" s="4" t="n">
         <f aca="false">+I11/I$7-1</f>
-        <v>-0.0734014021549898</v>
+        <v>-0.0517094958009626</v>
       </c>
       <c r="T11" s="4" t="n">
         <f aca="false">+J11/J$7-1</f>
-        <v>0.00261265678748024</v>
+        <v>0.00535053898811877</v>
       </c>
       <c r="U11" s="4" t="n">
         <f aca="false">+K11/K$7-1</f>
-        <v>-0.0129277592591958</v>
+        <v>-0.00901551804268941</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,32 +2309,35 @@
         <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>5.551936</v>
+        <v>4.13682</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>1666670000</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>897989400</v>
+        <v>883885300</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.717497</v>
+        <v>0.720276</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.057742</v>
+        <v>0.05906</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.538793</v>
+        <v>0.53033</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>1.434995</v>
+        <v>1.440551</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>21073.8</v>
       </c>
       <c r="N12" s="3" t="n">
         <f aca="false">+D12</f>
-        <v>5.551936</v>
+        <v>4.13682</v>
       </c>
       <c r="O12" s="4" t="n">
         <f aca="false">+E12/E$7-1</f>
@@ -2011,7 +2345,7 @@
       </c>
       <c r="P12" s="4" t="n">
         <f aca="false">+F12/F$7-1</f>
-        <v>0.00836730156377374</v>
+        <v>-0.00645852044274531</v>
       </c>
       <c r="Q12" s="4" t="n">
         <f aca="false">+G12/G$7-1</f>
@@ -2019,19 +2353,19 @@
       </c>
       <c r="R12" s="4" t="n">
         <f aca="false">+H12/H$7-1</f>
-        <v>-0.0167879870859529</v>
+        <v>-0.0125210958460891</v>
       </c>
       <c r="S12" s="4" t="n">
         <f aca="false">+I12/I$7-1</f>
-        <v>-0.0943709907620884</v>
+        <v>-0.0711791903878213</v>
       </c>
       <c r="T12" s="4" t="n">
         <f aca="false">+J12/J$7-1</f>
-        <v>0.0083676135364068</v>
+        <v>-0.00645961429658026</v>
       </c>
       <c r="U12" s="4" t="n">
         <f aca="false">+K12/K$7-1</f>
-        <v>-0.0167866282515528</v>
+        <v>-0.0125217813325583</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,32 +2373,35 @@
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>7.451131</v>
+        <v>5.551936</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1666670000</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>905422000</v>
+        <v>893522300</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.714871</v>
+        <v>0.717551</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.05652</v>
+        <v>0.057767</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.543252</v>
+        <v>0.536112</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>1.429742</v>
+        <v>1.435102</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>13584.5</v>
       </c>
       <c r="N13" s="3" t="n">
         <f aca="false">+D13</f>
-        <v>7.451131</v>
+        <v>5.551936</v>
       </c>
       <c r="O13" s="4" t="n">
         <f aca="false">+E13/E$7-1</f>
@@ -2072,7 +2409,7 @@
       </c>
       <c r="P13" s="4" t="n">
         <f aca="false">+F13/F$7-1</f>
-        <v>0.0167134922934227</v>
+        <v>0.00437406070606805</v>
       </c>
       <c r="Q13" s="4" t="n">
         <f aca="false">+G13/G$7-1</f>
@@ -2080,19 +2417,19 @@
       </c>
       <c r="R13" s="4" t="n">
         <f aca="false">+H13/H$7-1</f>
-        <v>-0.0203864895827052</v>
+        <v>-0.0162569971031341</v>
       </c>
       <c r="S13" s="4" t="n">
         <f aca="false">+I13/I$7-1</f>
-        <v>-0.113536912435891</v>
+        <v>-0.091513855251156</v>
       </c>
       <c r="T13" s="4" t="n">
         <f aca="false">+J13/J$7-1</f>
-        <v>0.016712768705013</v>
+        <v>0.00437260434113074</v>
       </c>
       <c r="U13" s="4" t="n">
         <f aca="false">+K13/K$7-1</f>
-        <v>-0.0203858183823856</v>
+        <v>-0.0162569971031341</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,32 +2437,35 @@
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>10</v>
+        <v>7.451131</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>1666670000</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>907469900</v>
+        <v>907227100</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.714821</v>
+        <v>0.714858</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.056496</v>
+        <v>0.056514</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.544481</v>
+        <v>0.544335</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>1.429642</v>
+        <v>1.429717</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>12100.5</v>
       </c>
       <c r="N14" s="3" t="n">
         <f aca="false">+D14</f>
-        <v>10</v>
+        <v>7.451131</v>
       </c>
       <c r="O14" s="4" t="n">
         <f aca="false">+E14/E$7-1</f>
@@ -2133,7 +2473,7 @@
       </c>
       <c r="P14" s="4" t="n">
         <f aca="false">+F14/F$7-1</f>
-        <v>0.0190131134213252</v>
+        <v>0.0197790994243681</v>
       </c>
       <c r="Q14" s="4" t="n">
         <f aca="false">+G14/G$7-1</f>
@@ -2141,23 +2481,52 @@
       </c>
       <c r="R14" s="4" t="n">
         <f aca="false">+H14/H$7-1</f>
-        <v>-0.0204550063857659</v>
+        <v>-0.0199490272261516</v>
       </c>
       <c r="S14" s="4" t="n">
         <f aca="false">+I14/I$7-1</f>
-        <v>-0.11391332988284</v>
+        <v>-0.111219450822508</v>
       </c>
       <c r="T14" s="4" t="n">
         <f aca="false">+J14/J$7-1</f>
-        <v>0.0190128798739337</v>
+        <v>0.0197778851882244</v>
       </c>
       <c r="U14" s="4" t="n">
         <f aca="false">+K14/K$7-1</f>
-        <v>-0.0204543352323919</v>
+        <v>-0.0199483417396824</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="2"/>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>1666670000</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>907469900</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.714821</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.056496</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.544481</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>1.429642</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>10004.7</v>
+      </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
